--- a/Resultados_Graficos.xlsx
+++ b/Resultados_Graficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Programacion\Practica-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E324FF-257B-42D3-93AD-9114EDB688BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B26AB0-754A-411F-A796-C6F29E5DCEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8A554A98-6313-43C4-B96C-936A76A647D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8A554A98-6313-43C4-B96C-936A76A647D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Problema 1" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -340,7 +340,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +441,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -453,11 +452,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1043,7 +1042,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1054,11 +1053,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3078,6 +3077,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-64A1-47D6-8820-D54D643D70DF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
@@ -3228,6 +3232,18 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1072.93</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2353.7399999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2353.7399999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2425.19</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2804.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7563,8 +7579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32A63CC-BAEF-4115-9C29-0A67A6F24A1E}">
   <dimension ref="B1:O94"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView topLeftCell="E3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9150,8 +9166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D0E22F-D21C-4C75-88B2-FC1A4F77069C}">
   <dimension ref="B1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10144,25 +10160,33 @@
       <c r="H52" s="1">
         <v>2017.486088543498</v>
       </c>
-      <c r="I52" s="2"/>
+      <c r="I52" s="2">
+        <v>2353.7399999999998</v>
+      </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H53" s="1">
         <v>2017.365384063781</v>
       </c>
-      <c r="I53" s="2"/>
+      <c r="I53" s="2">
+        <v>2353.7399999999998</v>
+      </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H54" s="1">
         <v>2015.0317523315621</v>
       </c>
-      <c r="I54" s="2"/>
+      <c r="I54" s="2">
+        <v>2425.19</v>
+      </c>
     </row>
     <row r="55" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H55" s="3">
         <v>2014.955510695228</v>
       </c>
-      <c r="I55" s="4"/>
+      <c r="I55" s="4">
+        <v>2804.96</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10179,8 +10203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E277600-7691-4F14-80E9-CFFF8D3AC44E}">
   <dimension ref="B1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11154,7 +11178,7 @@
       <c r="L49" s="1">
         <v>1318.3273652276509</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M49">
         <v>0</v>
       </c>
     </row>
@@ -11184,7 +11208,7 @@
       <c r="L50" s="1">
         <v>1318.3273652276509</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M50">
         <v>5000</v>
       </c>
     </row>
